--- a/medicine/Enfance/Manneken-Pis_de_Westmeerbeek/Manneken-Pis_de_Westmeerbeek.xlsx
+++ b/medicine/Enfance/Manneken-Pis_de_Westmeerbeek/Manneken-Pis_de_Westmeerbeek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Manneken-Pis de Westmeerbeek est une petite statue à Westmeerbeek, commune de Hulshout en Belgique, représentant un garçon en train d'uriner. La statue se dresse sur une place triangulaire. Westmeerbeek étant parfois surnommé petit Bruxelles[1], c'est pour cela qu'il a été décidé d'y placer une copie du symbole de Bruxelles.
-La figurine était à l'origine de couleur blanche et en béton artificiel, symbolisant l'industrie du béton artificiel Westmeerbeek[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Manneken-Pis de Westmeerbeek est une petite statue à Westmeerbeek, commune de Hulshout en Belgique, représentant un garçon en train d'uriner. La statue se dresse sur une place triangulaire. Westmeerbeek étant parfois surnommé petit Bruxelles, c'est pour cela qu'il a été décidé d'y placer une copie du symbole de Bruxelles.
+La figurine était à l'origine de couleur blanche et en béton artificiel, symbolisant l'industrie du béton artificiel Westmeerbeek.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1930, une copie du Manneken-Pis de Bruxelles a été placée à Westmeerbeek pour honorer le surnom du village[3] ,[2].
-Le 1er mai 2008, une nouvelle statuette a été inaugurée, les versions antérieures de la figurine ayant été vandalisées et volées[4].
-En octobre 2015, la statue a de nouveau été vandalisée. Un nouveau Manneken-Pis a été installé en mai 2016, mais il n'était plus blanc comme ses prédécesseurs, mais noir[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1930, une copie du Manneken-Pis de Bruxelles a été placée à Westmeerbeek pour honorer le surnom du village ,.
+Le 1er mai 2008, une nouvelle statuette a été inaugurée, les versions antérieures de la figurine ayant été vandalisées et volées.
+En octobre 2015, la statue a de nouveau été vandalisée. Un nouveau Manneken-Pis a été installé en mai 2016, mais il n'était plus blanc comme ses prédécesseurs, mais noir.
 </t>
         </is>
       </c>
